--- a/medicine/Enfance/Marilou_Addison/Marilou_Addison.xlsx
+++ b/medicine/Enfance/Marilou_Addison/Marilou_Addison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marilou Addison, née dans la région de Montréal le 14 mai 1979, est une écrivaine[1] québécoise. Autrice prolifique de littérature d'enfance et de jeunesse, elle publie également des romans d'horreur pour adulte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marilou Addison, née dans la région de Montréal le 14 mai 1979, est une écrivaine québécoise. Autrice prolifique de littérature d'enfance et de jeunesse, elle publie également des romans d'horreur pour adulte.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille d'un père enseignant le français et d'une mère écrivaine, elle grandit à Montréal.
 Elle détient un diplôme en littérature de l'Université de Montréal. 
 Après avoir été commis de bibliothèque, libraire, attachée de presse et coordonnatrice du Prix Cécile Gagnon, elle se lance dans l'écriture d'ouvrages de littérature d'enfance et de jeunesse, qui appartiennent souvent au genre horreur ou fantastique.
-À cet égard, elle est devenue attachée de presse puis finit par tomber enceinte de son premier enfant. À ce jour, elle s'occupe de ses trois enfants en essayant de garder un équilibre dans son domaine d'écrivaine[2].
+À cet égard, elle est devenue attachée de presse puis finit par tomber enceinte de son premier enfant. À ce jour, elle s'occupe de ses trois enfants en essayant de garder un équilibre dans son domaine d'écrivaine.
 </t>
         </is>
       </c>
@@ -547,34 +561,221 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman d'horreur
-Anita, éditions De Mortagne, coll. « Cobayes », 2014[3]
-Bouche cousue, éditions De Mortagne, 2019[4]
-Roman
-Abus de confiance, éditions Z'ailées, 2015[5]
-Littérature d'enfance et de jeunesse
-Lolita star, Éditions Andara, 2015
+          <t>Roman d'horreur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anita, éditions De Mortagne, coll. « Cobayes », 2014
+Bouche cousue, éditions De Mortagne, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abus de confiance, éditions Z'ailées, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lolita star, Éditions Andara, 2015
 Les Zozos du sport, Éditions Andara, 2016
 La Folle Vie de Bouboule Gomme, Éditions Andara, 2017
 Kung Fu Tim, Éditions Andara, 2017
 Fidji et ses drôles d'amimaux : au carnaval des poissons, Éditions Andara, 2017
 Bff (13 tomes) , Éditions Andara, 2017 en collaboration avec Geneviève Guilbault
-Les DIY de Maélie (10 tomes) , éditions boomerang, 2019
-Collection LOL [6]
-1. LOL: Macaroni au fromage, éditions boomerang, 2017
+Les DIY de Maélie (10 tomes) , éditions boomerang, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Collection LOL [6]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1. LOL: Macaroni au fromage, éditions boomerang, 2017
 2. LOL: Poutine italienne, éditions boomerang, 2017
 3. LOL: Chips aux cornichons, éditions boomerang, 2017
 4. LOL: Pâté Chinois, éditions boomerang, 2018
 5. LOL: Pizza hawaienne, éditions boomerang, 2018
 6. LOL: Biscuits secs, éditions boomerang, 2019
-7. LOL: Pogo à la moutarde, éditions boomerang, 2020
-Collection Tabou (12 ans et +)
-Solitude armée, collection Tabou, éditions De Mortagne, 2012[7]
+7. LOL: Pogo à la moutarde, éditions boomerang, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collection Tabou (12 ans et +)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Solitude armée, collection Tabou, éditions De Mortagne, 2012
 Onde de choc, collection Tabou, éditions De Mortagne, 2013
-Elle ou Lui, collection Tabou, éditions De Mortagne, 2016[8]
-16 ans et papa, collection Tabou, éditions De Mortagne, 2017
-Collection « Le journal de Dylane » (10 ans et +)[9]
-1. Sloche à la framboise bleue, Éditions Boomerang, 2015
+Elle ou Lui, collection Tabou, éditions De Mortagne, 2016
+16 ans et papa, collection Tabou, éditions De Mortagne, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collection « Le journal de Dylane » (10 ans et +)[9]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1. Sloche à la framboise bleue, Éditions Boomerang, 2015
 2. Chocolat chaud à la guimauve, Éditions Boomerang, 2015
 3. Barbe à papa rose, Éditions Boomerang, 2016
 4. Sandwich à la crème glacée, Éditions Boomerang, 2016
@@ -589,14 +790,90 @@
 13. Cream puff, Éditions boomerang, 2021
 14.Tarte au citron, Éditions boomerang, 2022
 15. Thé aux perles, Éditions boomerang, 2023
-16. Meringue croquante, Éditions boomerang, 2024
-Autres livres dans l'univers des romans« Le journal de Dylane
-9 1/2 Le journal de Mirabelle: Gâteau au chocolat, Éditions boomerang, 2019
+16. Meringue croquante, Éditions boomerang, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres livres dans l'univers des romans« Le journal de Dylane</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9 1/2 Le journal de Mirabelle: Gâteau au chocolat, Éditions boomerang, 2019
 11 1/2 Le journal d'Émile: Machine à gommes, Éditions boomerang, 2020
 13 3/4 Le journal de Mirabelle: Poire au chocolat, Éditions boomerang, 2022
-15 1/2 Le journal de Collin: Pizza dessert, Éditions boomerang, 2023
-Collection « La septième » (6-10 ans)[10]
-La Sphère magique, Éditions Boomerang, 2014
+15 1/2 Le journal de Collin: Pizza dessert, Éditions boomerang, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Collection « La septième » (6-10 ans)[10]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Sphère magique, Éditions Boomerang, 2014
 Dans l'œil du chat, Éditions Boomerang, 2014
 L'Arbre sacré, Éditions Boomerang, 2014
 La Malédiction de la sphère, Éditions Boomerang, 2014
@@ -604,14 +881,90 @@
 À la recherche du griot, Éditions Boomerang, 2016
 Le Tic-tac de l'horloge, Éditions Boomerang, 2017
 Docteur Sinistre, Éditions Boomerang, 2017
-Joëlle, Éditions Boomerang, 2017
-Collection « Zone frousse » (8-12 ans)[11]
-La Ruelle des damnés, éditions Z'ailées, 2012
+Joëlle, Éditions Boomerang, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Collection « Zone frousse » (8-12 ans)[11]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Ruelle des damnés, éditions Z'ailées, 2012
 Épouvante sur pellicule, éditions Z'Ailées, 2013
 Frayeur venue du ciel, éditions Z'ailées, 2014
-Gare au chien, éditions Z'Ailées, 2015
-Collection « Lumignon » (6-10 ans)
-La Planète des Mignons, collection Z'Enfants, éditions Z'ailées, 2011
+Gare au chien, éditions Z'Ailées, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marilou_Addison</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Collection « Lumignon » (6-10 ans)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Planète des Mignons, collection Z'Enfants, éditions Z'ailées, 2011
 Lumignon et la Mer de confettis, collection Z'Enfants, éditions Z'ailées, 2012
 Lumignon et la Planète de la rhubarbe, collection Z'Enfants, éditions Z'ailées, 2012
 Lumignon et l'Étoile glacée, collection Z'Enfants, éditions Z'ailées, 2013
